--- a/PROJECTS MACRO/MACRO_PROCESS - Report Aging PerGL PerBranch/RPA Preference/.Source/JDE/1204_INFO.xlsx
+++ b/PROJECTS MACRO/MACRO_PROCESS - Report Aging PerGL PerBranch/RPA Preference/.Source/JDE/1204_INFO.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwinarsih\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\MACRO_PROCESS - Report Aging PerGL PerBranch\RPA Preference\.Source\JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A00727E-03BC-4FB2-91F5-85A28F5C2F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4074F8D9-12D8-40A6-830C-709A31B6D34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{32403E18-85FD-4E9C-876A-64483C113176}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="R5641114_GG0001_1905035_PDF" sheetId="1" r:id="rId1"/>
+    <sheet name="R5641114_GG0001_1956600_PDF (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -124,19 +124,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
@@ -149,99 +151,114 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -649,7 +666,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -937,44 +954,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E81D5F-DCCC-4850-AB2C-F634CE9682D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="1">
-        <v>45666</v>
+        <v>45721</v>
       </c>
       <c r="T1" s="2">
-        <v>0.90576388888888892</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0.59253472222222225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S4" t="s">
         <v>3</v>
       </c>
@@ -982,12 +997,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I6">
         <v>1204</v>
       </c>
@@ -995,7 +1010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1006,7 +1021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1020,7 +1035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>11</v>
       </c>
@@ -1040,7 +1055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1054,7 +1069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>61812</v>
       </c>
@@ -1074,13 +1089,13 @@
         <v>22</v>
       </c>
       <c r="R11">
-        <v>674</v>
+        <v>733</v>
       </c>
       <c r="T11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>269213</v>
       </c>
@@ -1097,18 +1112,18 @@
         <v>22</v>
       </c>
       <c r="R12">
-        <v>695</v>
+        <v>754</v>
       </c>
       <c r="T12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>32874</v>
       </c>
@@ -1122,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1136,7 +1151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1150,7 +1165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1164,7 +1179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1178,7 +1193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
